--- a/portfolio/PortfolioWeights.xlsx
+++ b/portfolio/PortfolioWeights.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="27795" windowHeight="14850"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="13395" windowHeight="9750"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>MSST</t>
   </si>
@@ -36,9 +36,6 @@
     <t>KZOSP</t>
   </si>
   <si>
-    <t>Others</t>
-  </si>
-  <si>
     <t>HALS</t>
   </si>
   <si>
@@ -82,6 +79,33 @@
   </si>
   <si>
     <t>LIFE</t>
+  </si>
+  <si>
+    <t>RLMN</t>
+  </si>
+  <si>
+    <t>LVHK</t>
+  </si>
+  <si>
+    <t>AFLT</t>
+  </si>
+  <si>
+    <t>MRKS</t>
+  </si>
+  <si>
+    <t>MFGSP</t>
+  </si>
+  <si>
+    <t>NNSBP</t>
+  </si>
+  <si>
+    <t>OFCB</t>
+  </si>
+  <si>
+    <t>SELL</t>
+  </si>
+  <si>
+    <t>MTSS</t>
   </si>
 </sst>
 </file>
@@ -421,10 +445,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B22"/>
+      <selection sqref="A1:B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -482,7 +506,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>3.77</v>
+        <v>3.53</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -490,7 +514,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>3.53</v>
+        <v>3.42</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -498,7 +522,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>3.42</v>
+        <v>3.31</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -506,7 +530,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>3.31</v>
+        <v>2.31</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -514,7 +538,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>2.31</v>
+        <v>2.2200000000000002</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -522,7 +546,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>2.2200000000000002</v>
+        <v>2.14</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -530,7 +554,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>2.14</v>
+        <v>2.0499999999999998</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -538,7 +562,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>2.0499999999999998</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -546,7 +570,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -554,7 +578,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>1.93</v>
+        <v>1.82</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -562,7 +586,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -570,7 +594,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>1.78</v>
+        <v>1.67</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -578,7 +602,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -586,7 +610,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>1.62</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -594,7 +618,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>1.38</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -602,7 +626,71 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>1.27</v>
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>0.03</v>
       </c>
     </row>
   </sheetData>

--- a/portfolio/PortfolioWeights.xlsx
+++ b/portfolio/PortfolioWeights.xlsx
@@ -16,96 +16,141 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
-  <si>
-    <t>MSST</t>
-  </si>
-  <si>
-    <t>MOBB</t>
-  </si>
-  <si>
-    <t>AFKS</t>
-  </si>
-  <si>
-    <t>ABRD</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+  <si>
+    <t>PIKK</t>
+  </si>
+  <si>
+    <t>MAGN</t>
+  </si>
+  <si>
+    <t>KZOS</t>
   </si>
   <si>
     <t>CHZN</t>
   </si>
   <si>
-    <t>KZOSP</t>
-  </si>
-  <si>
-    <t>HALS</t>
-  </si>
-  <si>
-    <t>ISKJ</t>
-  </si>
-  <si>
-    <t>TAER</t>
-  </si>
-  <si>
-    <t>TRNFP</t>
-  </si>
-  <si>
-    <t>PRTK</t>
+    <t>KUZB</t>
+  </si>
+  <si>
+    <t>RGSS</t>
   </si>
   <si>
     <t>MFGS</t>
   </si>
   <si>
+    <t>RUALR</t>
+  </si>
+  <si>
+    <t>DGBZ</t>
+  </si>
+  <si>
+    <t>NSVZ</t>
+  </si>
+  <si>
+    <t>RUGR</t>
+  </si>
+  <si>
+    <t>RLMN</t>
+  </si>
+  <si>
+    <t>SELGP</t>
+  </si>
+  <si>
+    <t>KRKN</t>
+  </si>
+  <si>
+    <t>RTSBP</t>
+  </si>
+  <si>
+    <t>STSBP</t>
+  </si>
+  <si>
+    <t>VDSB</t>
+  </si>
+  <si>
     <t>JNOSP</t>
   </si>
   <si>
-    <t>VSMO</t>
-  </si>
-  <si>
-    <t>RKKE</t>
-  </si>
-  <si>
-    <t>SYNG</t>
-  </si>
-  <si>
-    <t>VTGK</t>
-  </si>
-  <si>
-    <t>MFON</t>
-  </si>
-  <si>
-    <t>MGNT</t>
-  </si>
-  <si>
-    <t>ALRS</t>
-  </si>
-  <si>
-    <t>LIFE</t>
-  </si>
-  <si>
-    <t>RLMN</t>
-  </si>
-  <si>
-    <t>LVHK</t>
-  </si>
-  <si>
-    <t>AFLT</t>
-  </si>
-  <si>
-    <t>MRKS</t>
-  </si>
-  <si>
-    <t>MFGSP</t>
-  </si>
-  <si>
-    <t>NNSBP</t>
-  </si>
-  <si>
-    <t>OFCB</t>
+    <t>SAGOP</t>
+  </si>
+  <si>
+    <t>KAZT</t>
+  </si>
+  <si>
+    <t>APTK</t>
+  </si>
+  <si>
+    <t>ASSB</t>
+  </si>
+  <si>
+    <t>NKSH</t>
   </si>
   <si>
     <t>SELL</t>
   </si>
   <si>
-    <t>MTSS</t>
+    <t>SARE</t>
+  </si>
+  <si>
+    <t>SAGO</t>
+  </si>
+  <si>
+    <t>PLZL</t>
+  </si>
+  <si>
+    <t>ALNU</t>
+  </si>
+  <si>
+    <t>KCHEP</t>
+  </si>
+  <si>
+    <t>CLSB</t>
+  </si>
+  <si>
+    <t>RTGZ</t>
+  </si>
+  <si>
+    <t>ELTZ</t>
+  </si>
+  <si>
+    <t>MAGEP</t>
+  </si>
+  <si>
+    <t>VRAO</t>
+  </si>
+  <si>
+    <t>IGST</t>
+  </si>
+  <si>
+    <t>DASB</t>
+  </si>
+  <si>
+    <t>YAKG</t>
+  </si>
+  <si>
+    <t>CHMF</t>
+  </si>
+  <si>
+    <t>VJGZP</t>
+  </si>
+  <si>
+    <t>BLNG</t>
+  </si>
+  <si>
+    <t>KOGK</t>
+  </si>
+  <si>
+    <t>PAZA</t>
+  </si>
+  <si>
+    <t>MGVM</t>
+  </si>
+  <si>
+    <t>CHMK</t>
+  </si>
+  <si>
+    <t>UNKL</t>
   </si>
 </sst>
 </file>
@@ -445,10 +490,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1:B45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B30"/>
+      <selection sqref="A1:B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -458,7 +503,7 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>27.73</v>
+        <v>11.62</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -466,7 +511,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>10.75</v>
+        <v>5.63</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -474,7 +519,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>10.61</v>
+        <v>5.31</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -482,7 +527,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>5.19</v>
+        <v>4.67</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -490,7 +535,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>5.15</v>
+        <v>4.6399999999999997</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -498,7 +543,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>4.37</v>
+        <v>3.87</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -506,7 +551,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>3.53</v>
+        <v>3.51</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -514,7 +559,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>3.42</v>
+        <v>3.34</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -522,7 +567,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>3.31</v>
+        <v>3.28</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -530,7 +575,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>2.31</v>
+        <v>3.27</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -538,7 +583,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>2.2200000000000002</v>
+        <v>3.06</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -546,7 +591,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>2.14</v>
+        <v>3.06</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -554,7 +599,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>2.0499999999999998</v>
+        <v>2.96</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -562,7 +607,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>1.98</v>
+        <v>2.94</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -570,7 +615,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>1.93</v>
+        <v>2.71</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -578,7 +623,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>1.82</v>
+        <v>2.59</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -586,7 +631,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>1.78</v>
+        <v>2.56</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -594,7 +639,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>1.67</v>
+        <v>2.52</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -602,7 +647,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>1.62</v>
+        <v>2.31</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -610,7 +655,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>1.38</v>
+        <v>2.2799999999999998</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -618,7 +663,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>1.27</v>
+        <v>2.14</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -626,7 +671,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>0.83</v>
+        <v>2.0499999999999998</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -634,7 +679,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>0.82</v>
+        <v>2.0299999999999998</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -642,7 +687,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>0.75</v>
+        <v>1.88</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -650,7 +695,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>0.6</v>
+        <v>1.78</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -658,7 +703,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>0.37</v>
+        <v>1.68</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -666,7 +711,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>0.21</v>
+        <v>1.68</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -674,7 +719,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>0.12</v>
+        <v>1.58</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -682,7 +727,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>0.04</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -690,6 +735,126 @@
         <v>29</v>
       </c>
       <c r="B30">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>44</v>
+      </c>
+      <c r="B45">
         <v>0.03</v>
       </c>
     </row>

--- a/portfolio/PortfolioWeights.xlsx
+++ b/portfolio/PortfolioWeights.xlsx
@@ -16,141 +16,138 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+  <si>
+    <t>ABRD</t>
+  </si>
+  <si>
+    <t>ALNU</t>
+  </si>
+  <si>
+    <t>BANEP</t>
+  </si>
+  <si>
+    <t>MMBM</t>
+  </si>
+  <si>
+    <t>TAER</t>
+  </si>
+  <si>
+    <t>KRKN</t>
+  </si>
+  <si>
+    <t>GMKN</t>
+  </si>
+  <si>
+    <t>SKYC</t>
+  </si>
   <si>
     <t>PIKK</t>
   </si>
   <si>
-    <t>MAGN</t>
+    <t>MOBB</t>
+  </si>
+  <si>
+    <t>OSMP</t>
+  </si>
+  <si>
+    <t>VJGZ</t>
+  </si>
+  <si>
+    <t>JNOSP</t>
+  </si>
+  <si>
+    <t>HALS</t>
+  </si>
+  <si>
+    <t>TUZA</t>
+  </si>
+  <si>
+    <t>BGDE</t>
+  </si>
+  <si>
+    <t>NSVZ</t>
+  </si>
+  <si>
+    <t>SELGP</t>
+  </si>
+  <si>
+    <t>MGTSP</t>
+  </si>
+  <si>
+    <t>LNZLP</t>
+  </si>
+  <si>
+    <t>RLMN</t>
+  </si>
+  <si>
+    <t>JNOS</t>
+  </si>
+  <si>
+    <t>VTRS</t>
+  </si>
+  <si>
+    <t>WTCMP</t>
+  </si>
+  <si>
+    <t>KAZT</t>
+  </si>
+  <si>
+    <t>WTCM</t>
+  </si>
+  <si>
+    <t>KAZTP</t>
+  </si>
+  <si>
+    <t>AMEZ</t>
+  </si>
+  <si>
+    <t>NAUK</t>
+  </si>
+  <si>
+    <t>TORS</t>
+  </si>
+  <si>
+    <t>MFGS</t>
+  </si>
+  <si>
+    <t>TANL</t>
+  </si>
+  <si>
+    <t>BISV</t>
+  </si>
+  <si>
+    <t>CHGZ</t>
+  </si>
+  <si>
+    <t>MAGE</t>
+  </si>
+  <si>
+    <t>RKKE</t>
   </si>
   <si>
     <t>KZOS</t>
   </si>
   <si>
-    <t>CHZN</t>
-  </si>
-  <si>
-    <t>KUZB</t>
-  </si>
-  <si>
-    <t>RGSS</t>
-  </si>
-  <si>
-    <t>MFGS</t>
-  </si>
-  <si>
-    <t>RUALR</t>
-  </si>
-  <si>
-    <t>DGBZ</t>
-  </si>
-  <si>
-    <t>NSVZ</t>
-  </si>
-  <si>
-    <t>RUGR</t>
-  </si>
-  <si>
-    <t>RLMN</t>
-  </si>
-  <si>
-    <t>SELGP</t>
-  </si>
-  <si>
-    <t>KRKN</t>
-  </si>
-  <si>
-    <t>RTSBP</t>
-  </si>
-  <si>
-    <t>STSBP</t>
-  </si>
-  <si>
-    <t>VDSB</t>
-  </si>
-  <si>
-    <t>JNOSP</t>
-  </si>
-  <si>
-    <t>SAGOP</t>
-  </si>
-  <si>
-    <t>KAZT</t>
-  </si>
-  <si>
-    <t>APTK</t>
-  </si>
-  <si>
-    <t>ASSB</t>
-  </si>
-  <si>
-    <t>NKSH</t>
+    <t>DIOD</t>
+  </si>
+  <si>
+    <t>CLSBP</t>
+  </si>
+  <si>
+    <t>SAREP</t>
+  </si>
+  <si>
+    <t>KRKNP</t>
+  </si>
+  <si>
+    <t>YRSBP</t>
+  </si>
+  <si>
+    <t>MISBP</t>
   </si>
   <si>
     <t>SELL</t>
-  </si>
-  <si>
-    <t>SARE</t>
-  </si>
-  <si>
-    <t>SAGO</t>
-  </si>
-  <si>
-    <t>PLZL</t>
-  </si>
-  <si>
-    <t>ALNU</t>
-  </si>
-  <si>
-    <t>KCHEP</t>
-  </si>
-  <si>
-    <t>CLSB</t>
-  </si>
-  <si>
-    <t>RTGZ</t>
-  </si>
-  <si>
-    <t>ELTZ</t>
-  </si>
-  <si>
-    <t>MAGEP</t>
-  </si>
-  <si>
-    <t>VRAO</t>
-  </si>
-  <si>
-    <t>IGST</t>
-  </si>
-  <si>
-    <t>DASB</t>
-  </si>
-  <si>
-    <t>YAKG</t>
-  </si>
-  <si>
-    <t>CHMF</t>
-  </si>
-  <si>
-    <t>VJGZP</t>
-  </si>
-  <si>
-    <t>BLNG</t>
-  </si>
-  <si>
-    <t>KOGK</t>
-  </si>
-  <si>
-    <t>PAZA</t>
-  </si>
-  <si>
-    <t>MGVM</t>
-  </si>
-  <si>
-    <t>CHMK</t>
-  </si>
-  <si>
-    <t>UNKL</t>
   </si>
 </sst>
 </file>
@@ -490,10 +487,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B45"/>
+  <dimension ref="A1:B44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B45"/>
+      <selection sqref="A1:B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -503,7 +500,7 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>11.62</v>
+        <v>10.46</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -511,7 +508,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>5.63</v>
+        <v>7.49</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -519,7 +516,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>5.31</v>
+        <v>7.48</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -527,7 +524,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>4.67</v>
+        <v>5.44</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -535,7 +532,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>4.6399999999999997</v>
+        <v>5.21</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -543,7 +540,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>3.87</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -551,7 +548,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>3.51</v>
+        <v>3.81</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -559,7 +556,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>3.34</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -567,7 +564,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>3.28</v>
+        <v>3.78</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -575,7 +572,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>3.27</v>
+        <v>3.73</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -583,7 +580,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>3.06</v>
+        <v>3.64</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -591,7 +588,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>3.06</v>
+        <v>3.12</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -599,7 +596,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>2.96</v>
+        <v>3.07</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -607,7 +604,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>2.94</v>
+        <v>2.69</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -615,7 +612,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>2.71</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -623,7 +620,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>2.59</v>
+        <v>2.54</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -631,7 +628,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>2.56</v>
+        <v>2.52</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -647,7 +644,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>2.31</v>
+        <v>2.37</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -655,7 +652,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>2.2799999999999998</v>
+        <v>2.34</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -663,7 +660,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>2.14</v>
+        <v>2.2200000000000002</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -671,7 +668,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>2.0499999999999998</v>
+        <v>2.11</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -679,7 +676,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>2.0299999999999998</v>
+        <v>1.71</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -687,7 +684,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>1.88</v>
+        <v>1.57</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -695,7 +692,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>1.78</v>
+        <v>1.1399999999999999</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -703,7 +700,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>1.68</v>
+        <v>1.1399999999999999</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -711,7 +708,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>1.68</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -719,7 +716,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>1.58</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -727,7 +724,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>1.48</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -735,7 +732,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>1.32</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -743,7 +740,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>1.18</v>
+        <v>0.56999999999999995</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -751,7 +748,7 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>0.99</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -759,7 +756,7 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>0.57999999999999996</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -767,7 +764,7 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>0.52</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -775,7 +772,7 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>0.48</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -783,7 +780,7 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>0.41</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -791,7 +788,7 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -799,7 +796,7 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>0.39</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -807,7 +804,7 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>0.35</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -815,7 +812,7 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>0.28999999999999998</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -823,7 +820,7 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>0.24</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -831,7 +828,7 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>0.18</v>
+        <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -839,7 +836,7 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>0.15</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -847,14 +844,6 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>44</v>
-      </c>
-      <c r="B45">
         <v>0.03</v>
       </c>
     </row>
